--- a/5-gurobi-optimal-solutions/gurobi-results/gurobi-results.xlsx
+++ b/5-gurobi-optimal-solutions/gurobi-results/gurobi-results.xlsx
@@ -8,6 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="VRPTW1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="VRPTW2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VRPTW3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="VRPTW4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="VRPTW5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="VRPTW6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="VRPTW7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="VRPTW8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="VRPTW9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="VRPTW10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -645,4 +654,2984 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BF3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>953.285</v>
+      </c>
+      <c r="C1" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45</v>
+      </c>
+      <c r="G2" t="n">
+        <v>36</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31</v>
+      </c>
+      <c r="J2" t="n">
+        <v>28</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2" t="n">
+        <v>29</v>
+      </c>
+      <c r="M2" t="n">
+        <v>30</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>19</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>18</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>49</v>
+      </c>
+      <c r="U2" t="n">
+        <v>46</v>
+      </c>
+      <c r="V2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W2" t="n">
+        <v>20</v>
+      </c>
+      <c r="X2" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>25.495</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>44.715</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>74.715</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>96.756</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>129.117</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>146.328</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>179.673</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>207.701</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>228</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>253.652</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>293.652</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>324.268</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>341.339</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>362.519</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>382.519</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>415</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>444.849</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>531.396</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>577</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>602.811</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>660</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>698.284</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>738.351</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>766.379</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>817</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>860.5410000000001</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>41</v>
+      </c>
+      <c r="N3" t="n">
+        <v>22</v>
+      </c>
+      <c r="O3" t="n">
+        <v>40</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>50</v>
+      </c>
+      <c r="T3" t="n">
+        <v>26</v>
+      </c>
+      <c r="U3" t="n">
+        <v>43</v>
+      </c>
+      <c r="V3" t="n">
+        <v>37</v>
+      </c>
+      <c r="W3" t="n">
+        <v>13</v>
+      </c>
+      <c r="X3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>104</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>135.633</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>186.241</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>206</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>234.028</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>254.468</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>277.468</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>312.468</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>333.285</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>349.367</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>396</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>410.243</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>436.054</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>484.133</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>529</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>553.1420000000001</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>571.388</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>598.506</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>643.3339999999999</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>670.596</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>691.777</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>733</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>773</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>811.16</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>836.3920000000001</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AR3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>215.543</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>213</v>
+      </c>
+      <c r="M2" t="n">
+        <v>311.602</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1073</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1167.123</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1261</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1376.612</v>
+      </c>
+      <c r="R2" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>21</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>102.828</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>196.434</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>497</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1643</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1742.055</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1837.055</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1934.126</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2026.126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2119.126</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2216.198</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2311.583</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2405.583</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2504.583</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2601.794</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>2698.865</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2791.865</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2887.948</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2983.604</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3085.266</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1" t="n">
+        <v>618.33</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>63</v>
+      </c>
+      <c r="J2" t="n">
+        <v>98.495</v>
+      </c>
+      <c r="K2" t="n">
+        <v>126</v>
+      </c>
+      <c r="L2" t="n">
+        <v>161</v>
+      </c>
+      <c r="M2" t="n">
+        <v>186.232</v>
+      </c>
+      <c r="N2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>84.071</v>
+      </c>
+      <c r="J3" t="n">
+        <v>124</v>
+      </c>
+      <c r="K3" t="n">
+        <v>159.495</v>
+      </c>
+      <c r="L3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>81</v>
+      </c>
+      <c r="I4" t="n">
+        <v>103.207</v>
+      </c>
+      <c r="J4" t="n">
+        <v>157</v>
+      </c>
+      <c r="K4" t="n">
+        <v>197.414</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>87</v>
+      </c>
+      <c r="G5" t="n">
+        <v>112.811</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" t="n">
+        <v>70.44</v>
+      </c>
+      <c r="L6" t="n">
+        <v>116</v>
+      </c>
+      <c r="M6" t="n">
+        <v>153</v>
+      </c>
+      <c r="N6" t="n">
+        <v>178</v>
+      </c>
+      <c r="O6" t="n">
+        <v>221.541</v>
+      </c>
+      <c r="P6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>97</v>
+      </c>
+      <c r="J7" t="n">
+        <v>149</v>
+      </c>
+      <c r="K7" t="n">
+        <v>184</v>
+      </c>
+      <c r="L7" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>32.016</v>
+      </c>
+      <c r="I8" t="n">
+        <v>61</v>
+      </c>
+      <c r="J8" t="n">
+        <v>159</v>
+      </c>
+      <c r="K8" t="n">
+        <v>180.18</v>
+      </c>
+      <c r="L8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34</v>
+      </c>
+      <c r="I9" t="n">
+        <v>75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>103.028</v>
+      </c>
+      <c r="K9" t="n">
+        <v>124.208</v>
+      </c>
+      <c r="L9" t="n">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AH3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>523.657</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>206</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>269</v>
+      </c>
+      <c r="R2" t="n">
+        <v>331</v>
+      </c>
+      <c r="S2" t="n">
+        <v>372.623</v>
+      </c>
+      <c r="T2" t="n">
+        <v>405.623</v>
+      </c>
+      <c r="U2" t="n">
+        <v>426.063</v>
+      </c>
+      <c r="V2" t="n">
+        <v>447.243</v>
+      </c>
+      <c r="W2" t="n">
+        <v>485.528</v>
+      </c>
+      <c r="X2" t="n">
+        <v>678</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>817</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>842</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>882</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>34</v>
+      </c>
+      <c r="T3" t="n">
+        <v>64</v>
+      </c>
+      <c r="U3" t="n">
+        <v>175</v>
+      </c>
+      <c r="V3" t="n">
+        <v>198</v>
+      </c>
+      <c r="W3" t="n">
+        <v>231.324</v>
+      </c>
+      <c r="X3" t="n">
+        <v>259.352</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>285.163</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>527</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>581</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>606.811</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>707</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>757.706</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>793.201</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>814.3819999999999</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1" t="n">
+        <v>462.156</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N2" t="n">
+        <v>70.19799999999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>91.378</v>
+      </c>
+      <c r="P2" t="n">
+        <v>104.378</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>120.209</v>
+      </c>
+      <c r="R2" t="n">
+        <v>138.812</v>
+      </c>
+      <c r="S2" t="n">
+        <v>151.812</v>
+      </c>
+      <c r="T2" t="n">
+        <v>168.883</v>
+      </c>
+      <c r="U2" t="n">
+        <v>214.938</v>
+      </c>
+      <c r="V2" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>59</v>
+      </c>
+      <c r="I3" t="n">
+        <v>109.608</v>
+      </c>
+      <c r="J3" t="n">
+        <v>122</v>
+      </c>
+      <c r="K3" t="n">
+        <v>167.057</v>
+      </c>
+      <c r="L3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>65</v>
+      </c>
+      <c r="L4" t="n">
+        <v>77</v>
+      </c>
+      <c r="M4" t="n">
+        <v>92.38500000000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>107.77</v>
+      </c>
+      <c r="O4" t="n">
+        <v>154</v>
+      </c>
+      <c r="P4" t="n">
+        <v>174.44</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>219.497</v>
+      </c>
+      <c r="R4" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>35.355</v>
+      </c>
+      <c r="N5" t="n">
+        <v>64</v>
+      </c>
+      <c r="O5" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>93.81</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>114.991</v>
+      </c>
+      <c r="R5" t="n">
+        <v>129.991</v>
+      </c>
+      <c r="S5" t="n">
+        <v>147.062</v>
+      </c>
+      <c r="T5" t="n">
+        <v>168.242</v>
+      </c>
+      <c r="U5" t="n">
+        <v>218.553</v>
+      </c>
+      <c r="V5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>432.297</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>152</v>
+      </c>
+      <c r="P2" t="n">
+        <v>172.198</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>367</v>
+      </c>
+      <c r="R2" t="n">
+        <v>382</v>
+      </c>
+      <c r="S2" t="n">
+        <v>395</v>
+      </c>
+      <c r="T2" t="n">
+        <v>471</v>
+      </c>
+      <c r="U2" t="n">
+        <v>673</v>
+      </c>
+      <c r="V2" t="n">
+        <v>690.071</v>
+      </c>
+      <c r="W2" t="n">
+        <v>740.3819999999999</v>
+      </c>
+      <c r="X2" t="n">
+        <v>761.563</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>809.6420000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18</v>
+      </c>
+      <c r="K3" t="n">
+        <v>19</v>
+      </c>
+      <c r="L3" t="n">
+        <v>22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>20</v>
+      </c>
+      <c r="P3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>35.355</v>
+      </c>
+      <c r="U3" t="n">
+        <v>195</v>
+      </c>
+      <c r="V3" t="n">
+        <v>223</v>
+      </c>
+      <c r="W3" t="n">
+        <v>240.81</v>
+      </c>
+      <c r="X3" t="n">
+        <v>255</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>316.662</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>328.662</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>342.662</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>358.048</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>375</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>421.056</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>519</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>569.6079999999999</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>681</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>784</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>839.277</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1" t="n">
+        <v>363.247</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>27</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2" t="n">
+        <v>28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>26</v>
+      </c>
+      <c r="K2" t="n">
+        <v>23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>22</v>
+      </c>
+      <c r="M2" t="n">
+        <v>21</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>105</v>
+      </c>
+      <c r="R2" t="n">
+        <v>197</v>
+      </c>
+      <c r="S2" t="n">
+        <v>289</v>
+      </c>
+      <c r="T2" t="n">
+        <v>382.606</v>
+      </c>
+      <c r="U2" t="n">
+        <v>477.606</v>
+      </c>
+      <c r="V2" t="n">
+        <v>570.606</v>
+      </c>
+      <c r="W2" t="n">
+        <v>662.606</v>
+      </c>
+      <c r="X2" t="n">
+        <v>755.606</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>848.606</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>940.606</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1040.804</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35</v>
+      </c>
+      <c r="G3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>38</v>
+      </c>
+      <c r="I3" t="n">
+        <v>39</v>
+      </c>
+      <c r="J3" t="n">
+        <v>36</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>31.623</v>
+      </c>
+      <c r="O3" t="n">
+        <v>123.623</v>
+      </c>
+      <c r="P3" t="n">
+        <v>219.008</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>314.008</v>
+      </c>
+      <c r="R3" t="n">
+        <v>409.839</v>
+      </c>
+      <c r="S3" t="n">
+        <v>501.839</v>
+      </c>
+      <c r="T3" t="n">
+        <v>596.8390000000001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>691.8390000000001</v>
+      </c>
+      <c r="V3" t="n">
+        <v>784.8390000000001</v>
+      </c>
+      <c r="W3" t="n">
+        <v>907.227</v>
+      </c>
+      <c r="X3" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>15.133</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>106.133</v>
+      </c>
+      <c r="R4" t="n">
+        <v>198.133</v>
+      </c>
+      <c r="S4" t="n">
+        <v>290.961</v>
+      </c>
+      <c r="T4" t="n">
+        <v>384.567</v>
+      </c>
+      <c r="U4" t="n">
+        <v>477.567</v>
+      </c>
+      <c r="V4" t="n">
+        <v>570.729</v>
+      </c>
+      <c r="W4" t="n">
+        <v>662.965</v>
+      </c>
+      <c r="X4" t="n">
+        <v>755.201</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>848.807</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>940.807</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1049.488</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>16</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>30.806</v>
+      </c>
+      <c r="N5" t="n">
+        <v>124.806</v>
+      </c>
+      <c r="O5" t="n">
+        <v>217.806</v>
+      </c>
+      <c r="P5" t="n">
+        <v>312.806</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>407.806</v>
+      </c>
+      <c r="R5" t="n">
+        <v>502.806</v>
+      </c>
+      <c r="S5" t="n">
+        <v>594.806</v>
+      </c>
+      <c r="T5" t="n">
+        <v>687.806</v>
+      </c>
+      <c r="U5" t="n">
+        <v>815.885</v>
+      </c>
+      <c r="V5" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>42</v>
+      </c>
+      <c r="E6" t="n">
+        <v>41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44</v>
+      </c>
+      <c r="H6" t="n">
+        <v>46</v>
+      </c>
+      <c r="I6" t="n">
+        <v>45</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48</v>
+      </c>
+      <c r="K6" t="n">
+        <v>50</v>
+      </c>
+      <c r="L6" t="n">
+        <v>49</v>
+      </c>
+      <c r="M6" t="n">
+        <v>47</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>16.553</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>109.553</v>
+      </c>
+      <c r="R6" t="n">
+        <v>201.553</v>
+      </c>
+      <c r="S6" t="n">
+        <v>293.553</v>
+      </c>
+      <c r="T6" t="n">
+        <v>386.553</v>
+      </c>
+      <c r="U6" t="n">
+        <v>479.381</v>
+      </c>
+      <c r="V6" t="n">
+        <v>571.381</v>
+      </c>
+      <c r="W6" t="n">
+        <v>663.381</v>
+      </c>
+      <c r="X6" t="n">
+        <v>815</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1001</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1093</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1201.028</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BT3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>444.961</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K2" t="n">
+        <v>44</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46</v>
+      </c>
+      <c r="M2" t="n">
+        <v>45</v>
+      </c>
+      <c r="N2" t="n">
+        <v>50</v>
+      </c>
+      <c r="O2" t="n">
+        <v>47</v>
+      </c>
+      <c r="P2" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>42</v>
+      </c>
+      <c r="R2" t="n">
+        <v>41</v>
+      </c>
+      <c r="S2" t="n">
+        <v>48</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>25</v>
+      </c>
+      <c r="W2" t="n">
+        <v>213</v>
+      </c>
+      <c r="X2" t="n">
+        <v>311.602</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>967</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1107.99</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1202.113</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1295.719</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1819</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1913.472</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2105.403</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2292</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2480</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2573</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2666</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2758</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2856.062</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2956.833</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>33</v>
+      </c>
+      <c r="L3" t="n">
+        <v>31</v>
+      </c>
+      <c r="M3" t="n">
+        <v>35</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38</v>
+      </c>
+      <c r="P3" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>36</v>
+      </c>
+      <c r="R3" t="n">
+        <v>34</v>
+      </c>
+      <c r="S3" t="n">
+        <v>28</v>
+      </c>
+      <c r="T3" t="n">
+        <v>26</v>
+      </c>
+      <c r="U3" t="n">
+        <v>23</v>
+      </c>
+      <c r="V3" t="n">
+        <v>18</v>
+      </c>
+      <c r="W3" t="n">
+        <v>19</v>
+      </c>
+      <c r="X3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>102.828</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>196.434</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>289.262</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>383.505</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>478.505</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>577.449</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>673.774</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>765.774</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>861.159</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>956.159</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1051.99</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1143.99</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1238.99</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1333.99</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1426.99</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1527.76</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1625.823</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1723.034</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1822.089</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1917.089</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>2014.16</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2106.16</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>2199.16</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2296.231</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2391.616</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2485.616</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>2584.616</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2681.827</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2778.899</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>2871.899</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2967.981</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>3063.638</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>3165.3</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1100.719</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>47</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>58.612</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82.02800000000001</v>
+      </c>
+      <c r="N2" t="n">
+        <v>104.235</v>
+      </c>
+      <c r="O2" t="n">
+        <v>123.669</v>
+      </c>
+      <c r="P2" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>197.414</v>
+      </c>
+      <c r="R2" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>72.042</v>
+      </c>
+      <c r="K3" t="n">
+        <v>126</v>
+      </c>
+      <c r="L3" t="n">
+        <v>146.77</v>
+      </c>
+      <c r="M3" t="n">
+        <v>190.77</v>
+      </c>
+      <c r="N3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>34</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69</v>
+      </c>
+      <c r="L4" t="n">
+        <v>89.81699999999999</v>
+      </c>
+      <c r="M4" t="n">
+        <v>132</v>
+      </c>
+      <c r="N4" t="n">
+        <v>165.087</v>
+      </c>
+      <c r="O4" t="n">
+        <v>186.267</v>
+      </c>
+      <c r="P4" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>44</v>
+      </c>
+      <c r="K5" t="n">
+        <v>68</v>
+      </c>
+      <c r="L5" t="n">
+        <v>97</v>
+      </c>
+      <c r="M5" t="n">
+        <v>149</v>
+      </c>
+      <c r="N5" t="n">
+        <v>172</v>
+      </c>
+      <c r="O5" t="n">
+        <v>215.541</v>
+      </c>
+      <c r="P5" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>37</v>
+      </c>
+      <c r="K6" t="n">
+        <v>69.361</v>
+      </c>
+      <c r="L6" t="n">
+        <v>86.432</v>
+      </c>
+      <c r="M6" t="n">
+        <v>124</v>
+      </c>
+      <c r="N6" t="n">
+        <v>161</v>
+      </c>
+      <c r="O6" t="n">
+        <v>186.232</v>
+      </c>
+      <c r="P6" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>39</v>
+      </c>
+      <c r="J7" t="n">
+        <v>63</v>
+      </c>
+      <c r="K7" t="n">
+        <v>116</v>
+      </c>
+      <c r="L7" t="n">
+        <v>153</v>
+      </c>
+      <c r="M7" t="n">
+        <v>193</v>
+      </c>
+      <c r="N7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>32.016</v>
+      </c>
+      <c r="J8" t="n">
+        <v>61</v>
+      </c>
+      <c r="K8" t="n">
+        <v>97</v>
+      </c>
+      <c r="L8" t="n">
+        <v>132</v>
+      </c>
+      <c r="M8" t="n">
+        <v>153.18</v>
+      </c>
+      <c r="N8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49</v>
+      </c>
+      <c r="F9" t="n">
+        <v>48</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>67</v>
+      </c>
+      <c r="J9" t="n">
+        <v>84.071</v>
+      </c>
+      <c r="K9" t="n">
+        <v>108</v>
+      </c>
+      <c r="L9" t="n">
+        <v>165</v>
+      </c>
+      <c r="M9" t="n">
+        <v>202.803</v>
+      </c>
+      <c r="N9" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>37</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32</v>
+      </c>
+      <c r="J10" t="n">
+        <v>75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>103.028</v>
+      </c>
+      <c r="L10" t="n">
+        <v>134</v>
+      </c>
+      <c r="M10" t="n">
+        <v>165.213</v>
+      </c>
+      <c r="N10" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37</v>
+      </c>
+      <c r="K11" t="n">
+        <v>63</v>
+      </c>
+      <c r="L11" t="n">
+        <v>97</v>
+      </c>
+      <c r="M11" t="n">
+        <v>118.18</v>
+      </c>
+      <c r="N11" t="n">
+        <v>143</v>
+      </c>
+      <c r="O11" t="n">
+        <v>194.037</v>
+      </c>
+      <c r="P11" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>42</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>31</v>
+      </c>
+      <c r="J12" t="n">
+        <v>53.083</v>
+      </c>
+      <c r="K12" t="n">
+        <v>90.542</v>
+      </c>
+      <c r="L12" t="n">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>159.495</v>
+      </c>
+      <c r="N12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>